--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_22-07.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_22-07.xlsx
@@ -32,6 +32,12 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1.2.3 EXTRA TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>ADAPALENE 0.1% GEL 30 GM</t>
   </si>
   <si>
@@ -278,9 +284,6 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>FUSI-ZON CREAM 15 GM</t>
   </si>
   <si>
@@ -516,6 +519,9 @@
   </si>
   <si>
     <t>YEAST MEPACO 60 TABS</t>
+  </si>
+  <si>
+    <t>ZITHOTRAC 500 MG 3 TAB</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -1168,11 +1174,11 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1">
@@ -1194,11 +1200,11 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -1220,11 +1226,11 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -1240,17 +1246,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -1258,7 +1264,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1266,17 +1272,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1292,17 +1298,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1310,7 +1316,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1318,17 +1324,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1336,7 +1342,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1344,17 +1350,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
-        <v>0.33000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1362,7 +1368,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1370,17 +1376,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
-        <v>0.17000000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1396,17 +1402,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1414,7 +1420,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1422,17 +1428,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>42.899999999999999</v>
+        <v>42</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
-        <v>0.14999999999999999</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1448,17 +1454,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>105</v>
+        <v>42.899999999999999</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>0.5</v>
+        <v>0.14999999999999999</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1466,7 +1472,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1480,7 +1486,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
@@ -1492,7 +1498,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1500,17 +1506,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>349</v>
+        <v>30</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1532,11 +1538,11 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>20</v>
+        <v>349</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
-        <v>0.16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1552,17 +1558,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1570,7 +1576,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1578,17 +1584,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>-0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1596,7 +1602,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1604,17 +1610,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>0.67000000000000004</v>
+        <v>-0.33000000000000002</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1630,17 +1636,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1648,7 +1654,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1656,7 +1662,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -1666,7 +1672,7 @@
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1674,7 +1680,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1682,17 +1688,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1708,17 +1714,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1726,7 +1732,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1734,13 +1740,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
@@ -1752,7 +1758,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1760,17 +1766,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1792,11 +1798,11 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1818,11 +1824,11 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1838,17 +1844,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1856,7 +1862,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1864,17 +1870,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>0.10000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1896,11 +1902,11 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1916,13 +1922,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
@@ -1934,7 +1940,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1942,17 +1948,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1960,7 +1966,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1968,17 +1974,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1994,17 +2000,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2012,7 +2018,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -2020,13 +2026,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
@@ -2038,7 +2044,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -2046,17 +2052,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -2064,7 +2070,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -2072,17 +2078,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -2098,13 +2104,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>139.68000000000001</v>
+        <v>36</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
@@ -2116,7 +2122,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -2124,17 +2130,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>24</v>
+        <v>139.68000000000001</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>0.66000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2156,11 +2162,11 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
-        <v>-0.20000000000000001</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2176,17 +2182,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
-        <v>1</v>
+        <v>-0.20000000000000001</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2194,7 +2200,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2202,17 +2208,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>26.670000000000002</v>
+        <v>27</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2220,7 +2226,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2228,17 +2234,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>66</v>
+        <v>26.670000000000002</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2246,7 +2252,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2254,13 +2260,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
@@ -2272,7 +2278,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2280,13 +2286,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
@@ -2306,17 +2312,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2324,7 +2330,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2332,17 +2338,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
-        <v>2</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2364,11 +2370,11 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2384,17 +2390,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>63.240000000000002</v>
+        <v>38</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2402,7 +2408,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2410,17 +2416,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>28</v>
+        <v>63.240000000000002</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2428,7 +2434,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2436,17 +2442,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2454,7 +2460,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2462,17 +2468,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>50.439999999999998</v>
+        <v>132</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2480,7 +2486,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2488,17 +2494,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>109.44</v>
+        <v>50.439999999999998</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2506,7 +2512,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2514,17 +2520,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>80</v>
+        <v>109.44</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2532,7 +2538,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2540,17 +2546,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2558,7 +2564,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2566,17 +2572,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2584,7 +2590,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2592,17 +2598,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>-0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2610,7 +2616,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2618,17 +2624,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2636,7 +2642,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2644,17 +2650,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>55.670000000000002</v>
+        <v>17</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>0.17000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2662,7 +2668,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2670,17 +2676,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>110</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2688,7 +2694,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2696,13 +2702,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
@@ -2722,13 +2728,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
@@ -2748,17 +2754,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2774,17 +2780,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>59.5</v>
+        <v>99</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2800,13 +2806,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>179</v>
+        <v>59.5</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
@@ -2826,17 +2832,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2852,17 +2858,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>40.479999999999997</v>
+        <v>27</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>2</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2878,17 +2884,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>162</v>
+        <v>40.479999999999997</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2904,17 +2910,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2930,17 +2936,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>0.10000000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2956,17 +2962,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
-        <v>1</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2982,13 +2988,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>69.5</v>
+        <v>17</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
@@ -3008,13 +3014,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>92</v>
+        <v>69.5</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
@@ -3034,13 +3040,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
@@ -3060,13 +3066,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
@@ -3086,17 +3092,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3112,17 +3118,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3130,7 +3136,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3138,17 +3144,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3164,17 +3170,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>69.900000000000006</v>
+        <v>12</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3190,17 +3196,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>16</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3208,7 +3214,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3216,17 +3222,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3234,7 +3240,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3242,13 +3248,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
@@ -3268,13 +3274,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
@@ -3294,13 +3300,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
@@ -3320,13 +3326,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
@@ -3346,13 +3352,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
@@ -3364,7 +3370,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3372,17 +3378,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3398,13 +3404,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>12.5</v>
+        <v>41</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
@@ -3424,17 +3430,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>39</v>
+        <v>12.5</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3450,17 +3456,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3476,17 +3482,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3502,17 +3508,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
-        <v>0.17000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3520,7 +3526,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3528,17 +3534,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>332</v>
+        <v>11</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3554,13 +3560,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
@@ -3580,13 +3586,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
@@ -3606,13 +3612,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
@@ -3632,17 +3638,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3658,17 +3664,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3684,17 +3690,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3710,17 +3716,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3736,17 +3742,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3762,17 +3768,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>153.59999999999999</v>
+        <v>32</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3788,17 +3794,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>60</v>
+        <v>153.59999999999999</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3814,13 +3820,13 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
@@ -3840,13 +3846,13 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
@@ -3866,17 +3872,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3892,17 +3898,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3918,17 +3924,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>225.59999999999999</v>
+        <v>58</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
-        <v>0.40000000000000002</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3936,7 +3942,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3944,17 +3950,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>45</v>
+        <v>225.59999999999999</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
-        <v>1</v>
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3970,17 +3976,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3996,17 +4002,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -4022,13 +4028,13 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>73.319999999999993</v>
+        <v>65</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
@@ -4048,13 +4054,13 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>46</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
@@ -4074,17 +4080,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>45.5</v>
+        <v>46</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4100,17 +4106,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>116</v>
+        <v>45.5</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4126,17 +4132,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4144,7 +4150,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4152,17 +4158,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4178,17 +4184,17 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1">
@@ -4204,13 +4210,13 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10">
@@ -4222,7 +4228,7 @@
         <v>119</v>
       </c>
       <c t="s" r="B122" s="7">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -4230,17 +4236,17 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" ht="25.5" customHeight="1">
@@ -4248,7 +4254,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4256,17 +4262,17 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="M123" s="9"/>
       <c r="N123" s="10">
-        <v>0.33000000000000002</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1">
@@ -4282,17 +4288,17 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="10">
-        <v>2</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4308,13 +4314,13 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="10">
@@ -4334,17 +4340,17 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -4360,17 +4366,17 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="10">
-        <v>0.98999999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="128" ht="25.5" customHeight="1">
@@ -4378,7 +4384,7 @@
         <v>125</v>
       </c>
       <c t="s" r="B128" s="7">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -4386,17 +4392,17 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="10">
-        <v>0.5</v>
+        <v>0.98999999999999999</v>
       </c>
     </row>
     <row r="129" ht="24.75" customHeight="1">
@@ -4412,17 +4418,17 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>24.199999999999999</v>
+        <v>52</v>
       </c>
       <c r="M129" s="9"/>
       <c r="N129" s="10">
-        <v>10</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="130" ht="25.5" customHeight="1">
@@ -4430,7 +4436,7 @@
         <v>127</v>
       </c>
       <c t="s" r="B130" s="7">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -4438,17 +4444,17 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>112</v>
+        <v>24.199999999999999</v>
       </c>
       <c r="M130" s="9"/>
       <c r="N130" s="10">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" ht="24.75" customHeight="1">
@@ -4464,17 +4470,17 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="M131" s="9"/>
       <c r="N131" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -4490,17 +4496,17 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>384</v>
+        <v>60</v>
       </c>
       <c r="M132" s="9"/>
       <c r="N132" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" ht="25.5" customHeight="1">
@@ -4516,13 +4522,13 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M133" s="9"/>
       <c r="N133" s="10">
@@ -4542,17 +4548,17 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c t="s" r="H134" s="8">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="9">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="M134" s="9"/>
       <c r="N134" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" ht="25.5" customHeight="1">
@@ -4568,17 +4574,17 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M135" s="9"/>
       <c r="N135" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" ht="24.75" customHeight="1">
@@ -4586,7 +4592,7 @@
         <v>133</v>
       </c>
       <c t="s" r="B136" s="7">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -4594,17 +4600,17 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c t="s" r="H136" s="8">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M136" s="9"/>
       <c r="N136" s="10">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -4612,7 +4618,7 @@
         <v>134</v>
       </c>
       <c t="s" r="B137" s="7">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -4626,11 +4632,11 @@
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
       <c r="L137" s="9">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="M137" s="9"/>
       <c r="N137" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" ht="25.5" customHeight="1">
@@ -4638,7 +4644,7 @@
         <v>135</v>
       </c>
       <c t="s" r="B138" s="7">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -4646,17 +4652,17 @@
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c t="s" r="H138" s="8">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="9">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M138" s="9"/>
       <c r="N138" s="10">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" ht="24.75" customHeight="1">
@@ -4672,17 +4678,17 @@
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c t="s" r="H139" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="L139" s="9">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M139" s="9"/>
       <c r="N139" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" ht="25.5" customHeight="1">
@@ -4690,7 +4696,7 @@
         <v>137</v>
       </c>
       <c t="s" r="B140" s="7">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -4698,13 +4704,13 @@
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c t="s" r="H140" s="8">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
       <c r="L140" s="9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M140" s="9"/>
       <c r="N140" s="10">
@@ -4716,7 +4722,7 @@
         <v>138</v>
       </c>
       <c t="s" r="B141" s="7">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -4724,17 +4730,17 @@
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c t="s" r="H141" s="8">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
       <c r="L141" s="9">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="M141" s="9"/>
       <c r="N141" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
@@ -4742,7 +4748,7 @@
         <v>139</v>
       </c>
       <c t="s" r="B142" s="7">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -4750,13 +4756,13 @@
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c t="s" r="H142" s="8">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
       <c r="L142" s="9">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="M142" s="9"/>
       <c r="N142" s="10">
@@ -4776,17 +4782,17 @@
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c t="s" r="H143" s="8">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
       <c r="L143" s="9">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="M143" s="9"/>
       <c r="N143" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" ht="24.75" customHeight="1">
@@ -4802,51 +4808,103 @@
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c t="s" r="H144" s="8">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
       <c r="K144" s="8"/>
       <c r="L144" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M144" s="9"/>
       <c r="N144" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="145" ht="26.25" customHeight="1">
-      <c r="K145" s="11">
-        <v>8712.1399999999994</v>
-      </c>
-      <c r="L145" s="11"/>
-      <c r="M145" s="11"/>
-      <c r="N145" s="11"/>
-    </row>
-    <row r="146" ht="16.5" customHeight="1">
-      <c t="s" r="A146" s="12">
+    <row r="145" ht="25.5" customHeight="1">
+      <c r="A145" s="6">
+        <v>142</v>
+      </c>
+      <c t="s" r="B145" s="7">
         <v>186</v>
       </c>
-      <c r="B146" s="12"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
-      <c t="s" r="F146" s="13">
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c t="s" r="H145" s="8">
+        <v>75</v>
+      </c>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="8"/>
+      <c r="L145" s="9">
+        <v>8</v>
+      </c>
+      <c r="M145" s="9"/>
+      <c r="N145" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" ht="24.75" customHeight="1">
+      <c r="A146" s="6">
+        <v>143</v>
+      </c>
+      <c t="s" r="B146" s="7">
         <v>187</v>
       </c>
-      <c r="G146" s="13"/>
-      <c r="H146" s="14"/>
-      <c t="s" r="I146" s="15">
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c t="s" r="H146" s="8">
+        <v>183</v>
+      </c>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="9">
+        <v>40</v>
+      </c>
+      <c r="M146" s="9"/>
+      <c r="N146" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" ht="26.25" customHeight="1">
+      <c r="K147" s="11">
+        <v>8787.1399999999994</v>
+      </c>
+      <c r="L147" s="11"/>
+      <c r="M147" s="11"/>
+      <c r="N147" s="11"/>
+    </row>
+    <row r="148" ht="16.5" customHeight="1">
+      <c t="s" r="A148" s="12">
         <v>188</v>
       </c>
-      <c r="J146" s="15"/>
-      <c r="K146" s="15"/>
-      <c r="L146" s="15"/>
-      <c r="M146" s="15"/>
-      <c r="N146" s="15"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c t="s" r="F148" s="13">
+        <v>189</v>
+      </c>
+      <c r="G148" s="13"/>
+      <c r="H148" s="14"/>
+      <c t="s" r="I148" s="15">
+        <v>190</v>
+      </c>
+      <c r="J148" s="15"/>
+      <c r="K148" s="15"/>
+      <c r="L148" s="15"/>
+      <c r="M148" s="15"/>
+      <c r="N148" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="434">
+  <mergeCells count="440">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -5277,10 +5335,16 @@
     <mergeCell ref="B144:G144"/>
     <mergeCell ref="H144:K144"/>
     <mergeCell ref="L144:M144"/>
-    <mergeCell ref="K145:N145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="I146:N146"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="K147:N147"/>
+    <mergeCell ref="A148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="I148:N148"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
